--- a/data/trans_orig/P35-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P35-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>53029</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40467</v>
+        <v>41221</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65994</v>
+        <v>66987</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2034108388069402</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1552236656362457</v>
+        <v>0.1581163383986821</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2531427129690973</v>
+        <v>0.25695237486519</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>55</v>
@@ -765,19 +765,19 @@
         <v>59522</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46920</v>
+        <v>45816</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>72785</v>
+        <v>74363</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2320735594214919</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1829418445465081</v>
+        <v>0.1786369671697382</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2837893163915282</v>
+        <v>0.2899401302546191</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>110</v>
@@ -786,19 +786,19 @@
         <v>112550</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>94543</v>
+        <v>94927</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>132461</v>
+        <v>132561</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2176251983053961</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1828068596934932</v>
+        <v>0.1835490264784061</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2561241204787317</v>
+        <v>0.2563178290140669</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>207670</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>194705</v>
+        <v>193712</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>220232</v>
+        <v>219478</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7965891611930598</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7468572870309025</v>
+        <v>0.7430476251348099</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8447763343637543</v>
+        <v>0.841883661601318</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>186</v>
@@ -836,19 +836,19 @@
         <v>196955</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>183692</v>
+        <v>182114</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>209557</v>
+        <v>210661</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7679264405785081</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.716210683608472</v>
+        <v>0.710059869745381</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.817058155453492</v>
+        <v>0.821363032830262</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>391</v>
@@ -857,19 +857,19 @@
         <v>404625</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>384714</v>
+        <v>384614</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>422632</v>
+        <v>422248</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7823748016946039</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7438758795212681</v>
+        <v>0.7436821709859331</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8171931403065068</v>
+        <v>0.8164509735215939</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>107932</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>88691</v>
+        <v>91454</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>126665</v>
+        <v>129755</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.232006515744522</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1906477832458056</v>
+        <v>0.1965865198496538</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2722741928427838</v>
+        <v>0.2789154618962137</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>154</v>
@@ -982,19 +982,19 @@
         <v>156810</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>137499</v>
+        <v>138824</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>178722</v>
+        <v>179227</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3289014652964722</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2883974898269505</v>
+        <v>0.2911775430174273</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3748607512393656</v>
+        <v>0.3759209667117231</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>256</v>
@@ -1003,19 +1003,19 @@
         <v>264742</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>238198</v>
+        <v>239313</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>293093</v>
+        <v>292036</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2810484137289237</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2528695766156719</v>
+        <v>0.2540526667514335</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3111453773576299</v>
+        <v>0.3100231000708913</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>357279</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>338546</v>
+        <v>335456</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>376520</v>
+        <v>373757</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.767993484255478</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7277258071572164</v>
+        <v>0.7210845381037863</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8093522167541946</v>
+        <v>0.8034134801503464</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>318</v>
@@ -1053,19 +1053,19 @@
         <v>319959</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>298047</v>
+        <v>297542</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>339270</v>
+        <v>337945</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6710985347035278</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6251392487606344</v>
+        <v>0.624079033288277</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7116025101730497</v>
+        <v>0.7088224569825728</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>655</v>
@@ -1074,19 +1074,19 @@
         <v>677238</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>648887</v>
+        <v>649944</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>703782</v>
+        <v>702667</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7189515862710764</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6888546226423701</v>
+        <v>0.6899768999291086</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7471304233843279</v>
+        <v>0.7459473332485665</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>41478</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30185</v>
+        <v>30841</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53870</v>
+        <v>54012</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1347944015273134</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09809669651738728</v>
+        <v>0.1002269141328333</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1750662964905497</v>
+        <v>0.1755283497609313</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -1199,19 +1199,19 @@
         <v>60761</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47760</v>
+        <v>47891</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>75911</v>
+        <v>74116</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1865940705484722</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1466689457855404</v>
+        <v>0.1470715098502922</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2331180509946198</v>
+        <v>0.2276050420508738</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>104</v>
@@ -1220,19 +1220,19 @@
         <v>102239</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>83684</v>
+        <v>85738</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>121766</v>
+        <v>121427</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1614271823416842</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1321302872688449</v>
+        <v>0.135372738848721</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1922590819373006</v>
+        <v>0.1917234203214856</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>266233</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>253841</v>
+        <v>253699</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>277526</v>
+        <v>276870</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8652055984726866</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8249337035094504</v>
+        <v>0.8244716502390688</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9019033034826133</v>
+        <v>0.8997730858671668</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>263</v>
@@ -1270,19 +1270,19 @@
         <v>264873</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>249723</v>
+        <v>251518</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>277874</v>
+        <v>277743</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8134059294515278</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7668819490053801</v>
+        <v>0.7723949579491256</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8533310542144595</v>
+        <v>0.8529284901497077</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>520</v>
@@ -1291,19 +1291,19 @@
         <v>531106</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>511579</v>
+        <v>511918</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>549661</v>
+        <v>547607</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8385728176583158</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8077409180626994</v>
+        <v>0.8082765796785144</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8678697127311551</v>
+        <v>0.864627261151279</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>60451</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47148</v>
+        <v>47199</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>76506</v>
+        <v>74928</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1766852875741137</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1378033509624499</v>
+        <v>0.1379543386073526</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2236114407376577</v>
+        <v>0.2190007822989891</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>87</v>
@@ -1416,19 +1416,19 @@
         <v>83277</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>67243</v>
+        <v>68810</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98957</v>
+        <v>100924</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2402621182945042</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1940032619433525</v>
+        <v>0.1985223364381309</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2854982881779535</v>
+        <v>0.2911734639847072</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>150</v>
@@ -1437,19 +1437,19 @@
         <v>143728</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>121581</v>
+        <v>125177</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>164499</v>
+        <v>167364</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2086801012838374</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1765246275650238</v>
+        <v>0.1817455597531769</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2388380902359136</v>
+        <v>0.242998014103651</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>281687</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>265632</v>
+        <v>267210</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>294990</v>
+        <v>294939</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8233147124258863</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7763885592623423</v>
+        <v>0.780999217701011</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8621966490375501</v>
+        <v>0.8620456613926475</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>272</v>
@@ -1487,19 +1487,19 @@
         <v>263333</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>247653</v>
+        <v>245686</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>279367</v>
+        <v>277800</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7597378817054958</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7145017118220462</v>
+        <v>0.7088265360152928</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8059967380566472</v>
+        <v>0.8014776635618691</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>554</v>
@@ -1508,19 +1508,19 @@
         <v>545020</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>524249</v>
+        <v>521384</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>567167</v>
+        <v>563571</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7913198987161626</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7611619097640864</v>
+        <v>0.7570019858963489</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8234753724349764</v>
+        <v>0.8182544402468231</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>17924</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11523</v>
+        <v>11024</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27158</v>
+        <v>26450</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09333441390470826</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06000284413152743</v>
+        <v>0.0574031688990979</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1414199422648076</v>
+        <v>0.1377325475543187</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -1633,19 +1633,19 @@
         <v>26565</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17778</v>
+        <v>18498</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37946</v>
+        <v>38061</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1342865753680631</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08986858844004444</v>
+        <v>0.0935064510711857</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1918217782764184</v>
+        <v>0.1924013704834456</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>44</v>
@@ -1654,19 +1654,19 @@
         <v>44489</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33154</v>
+        <v>32980</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57586</v>
+        <v>57823</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1141140751808531</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08503901647634558</v>
+        <v>0.08459345412546285</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1477094498497794</v>
+        <v>0.1483162235256746</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>174117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>164883</v>
+        <v>165591</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>180518</v>
+        <v>181017</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9066655860952918</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8585800577351923</v>
+        <v>0.8622674524456813</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9399971558684725</v>
+        <v>0.9425968311009022</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>163</v>
@@ -1704,19 +1704,19 @@
         <v>171256</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>159875</v>
+        <v>159760</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>180043</v>
+        <v>179323</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8657134246319369</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8081782217235811</v>
+        <v>0.8075986295165551</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9101314115599554</v>
+        <v>0.9064935489288144</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>338</v>
@@ -1725,19 +1725,19 @@
         <v>345374</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>332277</v>
+        <v>332040</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>356709</v>
+        <v>356883</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.885885924819147</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8522905501502207</v>
+        <v>0.8516837764743249</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9149609835236544</v>
+        <v>0.915406545874537</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>53216</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40970</v>
+        <v>42135</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>67202</v>
+        <v>67320</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2104943503841663</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1620563536653739</v>
+        <v>0.166662032759548</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2658162896452687</v>
+        <v>0.2662815995436522</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>58</v>
@@ -1850,19 +1850,19 @@
         <v>60418</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48257</v>
+        <v>46773</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>75468</v>
+        <v>74246</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2358099935429833</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1883444147033239</v>
+        <v>0.1825524937631464</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2945464501913245</v>
+        <v>0.2897783916651728</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>111</v>
@@ -1871,19 +1871,19 @@
         <v>113634</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>96425</v>
+        <v>93604</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>134561</v>
+        <v>132175</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2232367518496588</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1894290911732343</v>
+        <v>0.1838870708938412</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2643477139638509</v>
+        <v>0.2596591567900497</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>199599</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>185613</v>
+        <v>185495</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>211845</v>
+        <v>210680</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7895056496158337</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7341837103547313</v>
+        <v>0.7337184004563477</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8379436463346259</v>
+        <v>0.8333379672404521</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>191</v>
@@ -1921,19 +1921,19 @@
         <v>195798</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>180748</v>
+        <v>181970</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>207959</v>
+        <v>209443</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7641900064570166</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7054535498086756</v>
+        <v>0.7102216083348271</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8116555852966761</v>
+        <v>0.8174475062368536</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>386</v>
@@ -1942,19 +1942,19 @@
         <v>395397</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>374470</v>
+        <v>376856</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>412606</v>
+        <v>415427</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7767632481503411</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7356522860361489</v>
+        <v>0.7403408432099503</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8105709088267654</v>
+        <v>0.8161129291061588</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>77229</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>64177</v>
+        <v>62435</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>95039</v>
+        <v>94807</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1301607843695086</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1081628365790634</v>
+        <v>0.1052269380633354</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1601764375107786</v>
+        <v>0.1597867785357154</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>88</v>
@@ -2067,19 +2067,19 @@
         <v>85564</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>69375</v>
+        <v>68700</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>102151</v>
+        <v>104105</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1410330894553883</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1143499433804283</v>
+        <v>0.1132371723405447</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1683727929907286</v>
+        <v>0.171594165223715</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>168</v>
@@ -2088,19 +2088,19 @@
         <v>162793</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>140327</v>
+        <v>141020</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>187501</v>
+        <v>187989</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1356574419354318</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1169363607304201</v>
+        <v>0.1175132917842808</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1562470825867415</v>
+        <v>0.1566537292543683</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>516108</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>498298</v>
+        <v>498530</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>529160</v>
+        <v>530902</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8698392156304914</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8398235624892213</v>
+        <v>0.8402132214642846</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8918371634209366</v>
+        <v>0.8947730619366646</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>503</v>
@@ -2138,19 +2138,19 @@
         <v>521130</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>504543</v>
+        <v>502589</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>537319</v>
+        <v>537994</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8589669105446117</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8316272070092713</v>
+        <v>0.828405834776285</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8856500566195717</v>
+        <v>0.8867628276594554</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1000</v>
@@ -2159,19 +2159,19 @@
         <v>1037238</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1012530</v>
+        <v>1012042</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1059704</v>
+        <v>1059011</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8643425580645683</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8437529174132585</v>
+        <v>0.8433462707456317</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8830636392695799</v>
+        <v>0.8824867082157192</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>136062</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>117096</v>
+        <v>117794</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>157106</v>
+        <v>157121</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1907585391937235</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1641673936426455</v>
+        <v>0.1651463138973882</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.220261548794014</v>
+        <v>0.2202823112925125</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>147</v>
@@ -2284,19 +2284,19 @@
         <v>158689</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>137194</v>
+        <v>137081</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>181393</v>
+        <v>179870</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.213920747162467</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1849440136970202</v>
+        <v>0.1847915810340068</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.244527090556195</v>
+        <v>0.2424737812276269</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>288</v>
@@ -2305,19 +2305,19 @@
         <v>294751</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>265458</v>
+        <v>260820</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>326262</v>
+        <v>323315</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2025668101678167</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1824348548826216</v>
+        <v>0.1792475309068847</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2242226781297924</v>
+        <v>0.2221969965365704</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>577208</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>556164</v>
+        <v>556149</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>596174</v>
+        <v>595476</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8092414608062766</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7797384512059859</v>
+        <v>0.7797176887074875</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8358326063573542</v>
+        <v>0.8348536861026118</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>558</v>
@@ -2355,19 +2355,19 @@
         <v>583123</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>560419</v>
+        <v>561942</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>604618</v>
+        <v>604731</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.786079252837533</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.755472909443805</v>
+        <v>0.757526218772373</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8150559863029798</v>
+        <v>0.8152084189659933</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1123</v>
@@ -2376,19 +2376,19 @@
         <v>1160331</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1128820</v>
+        <v>1131767</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1189624</v>
+        <v>1194262</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7974331898321833</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7757773218702075</v>
+        <v>0.7778030034634298</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8175651451173783</v>
+        <v>0.8207524690931154</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>547321</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>506232</v>
+        <v>503551</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>587236</v>
+        <v>591230</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1750183142575368</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1618790034667663</v>
+        <v>0.1610217958874227</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1877820828488352</v>
+        <v>0.1890591628850223</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>676</v>
@@ -2501,19 +2501,19 @@
         <v>691606</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>645268</v>
+        <v>645978</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>742797</v>
+        <v>740117</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2155856923659197</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2011412083511215</v>
+        <v>0.2013625852219477</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2315426733103312</v>
+        <v>0.2307072994517462</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1231</v>
@@ -2522,19 +2522,19 @@
         <v>1238927</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1177488</v>
+        <v>1180088</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1299957</v>
+        <v>1301900</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1955607352681062</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1858626629747316</v>
+        <v>0.1862731423471774</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2051940634276905</v>
+        <v>0.2055007825530351</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2579902</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2539987</v>
+        <v>2535993</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2620991</v>
+        <v>2623672</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8249816857424632</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8122179171511648</v>
+        <v>0.8109408371149779</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8381209965332337</v>
+        <v>0.8389782041125773</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2454</v>
@@ -2572,19 +2572,19 @@
         <v>2516427</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2465236</v>
+        <v>2467916</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2562765</v>
+        <v>2562055</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7844143076340804</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7684573266896688</v>
+        <v>0.7692927005482542</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7988587916488785</v>
+        <v>0.7986374147780524</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4967</v>
@@ -2593,19 +2593,19 @@
         <v>5096329</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5035299</v>
+        <v>5033356</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5157768</v>
+        <v>5155168</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8044392647318938</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7948059365723095</v>
+        <v>0.7944992174469651</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8141373370252685</v>
+        <v>0.8137268576528226</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>67862</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55227</v>
+        <v>54439</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>84509</v>
+        <v>82077</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2404341978374913</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.195669079344447</v>
+        <v>0.1928772493760705</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.299411714418937</v>
+        <v>0.2907963036603244</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>100</v>
@@ -2962,19 +2962,19 @@
         <v>113146</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>96382</v>
+        <v>97353</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>130929</v>
+        <v>132721</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4001292557390379</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3408459305937123</v>
+        <v>0.3442790313774526</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4630178001439599</v>
+        <v>0.4693545255866668</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>166</v>
@@ -2983,19 +2983,19 @@
         <v>181008</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>159614</v>
+        <v>157761</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>203528</v>
+        <v>204431</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3203557676552062</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2824920294016544</v>
+        <v>0.2792124853011783</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3602131998108275</v>
+        <v>0.3618107976852934</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>214387</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>197740</v>
+        <v>200172</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>227022</v>
+        <v>227810</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7595658021625087</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7005882855810631</v>
+        <v>0.7092036963396755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.804330920655553</v>
+        <v>0.8071227506239294</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>152</v>
@@ -3033,19 +3033,19 @@
         <v>169627</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>151844</v>
+        <v>150052</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>186391</v>
+        <v>185420</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5998707442609621</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.53698219985604</v>
+        <v>0.5306454744133332</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6591540694062876</v>
+        <v>0.6557209686225474</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>357</v>
@@ -3054,19 +3054,19 @@
         <v>384014</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>361494</v>
+        <v>360591</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>405408</v>
+        <v>407261</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6796442323447939</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6397868001891726</v>
+        <v>0.6381892023147074</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7175079705983459</v>
+        <v>0.7207875146988217</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>187559</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>164676</v>
+        <v>166016</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>210175</v>
+        <v>210352</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3765150733112556</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3305782036912914</v>
+        <v>0.3332685321007184</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4219153100914402</v>
+        <v>0.4222692366585498</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>210</v>
@@ -3179,19 +3179,19 @@
         <v>228543</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>206434</v>
+        <v>206659</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>252016</v>
+        <v>253362</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4441100715555827</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4011479641587237</v>
+        <v>0.4015846917367661</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4897239161256416</v>
+        <v>0.4923390434871201</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>379</v>
@@ -3200,19 +3200,19 @@
         <v>416102</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>386012</v>
+        <v>381991</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>445187</v>
+        <v>448409</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4108619413462295</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.381151097136347</v>
+        <v>0.3771807985171815</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.439581051266181</v>
+        <v>0.4427629042627582</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>310587</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>287971</v>
+        <v>287794</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>333470</v>
+        <v>332130</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6234849266887444</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5780846899085599</v>
+        <v>0.57773076334145</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6694217963087082</v>
+        <v>0.6667314678992816</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>262</v>
@@ -3250,19 +3250,19 @@
         <v>286065</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>262592</v>
+        <v>261246</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>308174</v>
+        <v>307949</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5558899284444173</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5102760838743584</v>
+        <v>0.5076609565128801</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5988520358412768</v>
+        <v>0.5984153082632342</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>558</v>
@@ -3271,19 +3271,19 @@
         <v>596651</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>567566</v>
+        <v>564344</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>626741</v>
+        <v>630762</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5891380586537706</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5604189487338188</v>
+        <v>0.5572370957372418</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6188489028636529</v>
+        <v>0.6228192014828184</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>74542</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60933</v>
+        <v>60651</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>89951</v>
+        <v>92915</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2338871429593193</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1911863414313775</v>
+        <v>0.1903007274050648</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2822335252315616</v>
+        <v>0.2915333726860344</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>93</v>
@@ -3396,19 +3396,19 @@
         <v>98435</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82198</v>
+        <v>82048</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>116950</v>
+        <v>115498</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2929311019214474</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2446142522462355</v>
+        <v>0.2441658789710698</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.34803171441516</v>
+        <v>0.3437115757984931</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>165</v>
@@ -3417,19 +3417,19 @@
         <v>172976</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>152384</v>
+        <v>151269</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>197028</v>
+        <v>197221</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2641902069755531</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2327384462505228</v>
+        <v>0.2310353876085029</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3009252108084127</v>
+        <v>0.3012189933904967</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>244168</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>228759</v>
+        <v>225795</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>257777</v>
+        <v>258059</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7661128570406808</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7177664747684385</v>
+        <v>0.7084666273139657</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8088136585686225</v>
+        <v>0.8096992725949352</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>219</v>
@@ -3467,19 +3467,19 @@
         <v>237598</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>219083</v>
+        <v>220535</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>253835</v>
+        <v>253985</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7070688980785527</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.65196828558484</v>
+        <v>0.6562884242015069</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7553857477537645</v>
+        <v>0.7558341210289302</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>461</v>
@@ -3488,19 +3488,19 @@
         <v>481766</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>457714</v>
+        <v>457521</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>502358</v>
+        <v>503473</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7358097930244468</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6990747891915875</v>
+        <v>0.6987810066095033</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7672615537494772</v>
+        <v>0.768964612391497</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>58297</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>43298</v>
+        <v>43418</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75375</v>
+        <v>72864</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1628277314158766</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1209334618151706</v>
+        <v>0.1212686459080469</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2105283573344094</v>
+        <v>0.203514808116096</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>112</v>
@@ -3613,19 +3613,19 @@
         <v>118421</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>101512</v>
+        <v>103053</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>139183</v>
+        <v>140176</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3257884078054076</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2792719471630584</v>
+        <v>0.2835097144556729</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.382907501690191</v>
+        <v>0.3856394447002995</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>163</v>
@@ -3634,19 +3634,19 @@
         <v>176717</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>153108</v>
+        <v>151943</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>202898</v>
+        <v>201239</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2449248158473265</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2122029806196361</v>
+        <v>0.2105886307339004</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2812098115314928</v>
+        <v>0.2789104355639305</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>299731</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>282653</v>
+        <v>285164</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>314730</v>
+        <v>314610</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8371722685841234</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7894716426655904</v>
+        <v>0.7964851918839034</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8790665381848294</v>
+        <v>0.878731354091953</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>234</v>
@@ -3684,19 +3684,19 @@
         <v>245068</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>224306</v>
+        <v>223313</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>261977</v>
+        <v>260436</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6742115921945925</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6170924983098091</v>
+        <v>0.6143605552997002</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7207280528369415</v>
+        <v>0.7164902855443266</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>512</v>
@@ -3705,19 +3705,19 @@
         <v>544800</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>518619</v>
+        <v>520278</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>568409</v>
+        <v>569574</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7550751841526735</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7187901884685074</v>
+        <v>0.7210895644360694</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7877970193803642</v>
+        <v>0.7894113692660997</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>46470</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33933</v>
+        <v>34044</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59360</v>
+        <v>59031</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2217893778668681</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1619561408347968</v>
+        <v>0.1624856027558996</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2833101660386203</v>
+        <v>0.2817433319963746</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>73</v>
@@ -3830,19 +3830,19 @@
         <v>78338</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>62915</v>
+        <v>64085</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>92315</v>
+        <v>93120</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3581945903547985</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2876725913620982</v>
+        <v>0.2930242921129376</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4221003677029947</v>
+        <v>0.4257815101774092</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>116</v>
@@ -3851,19 +3851,19 @@
         <v>124808</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>105879</v>
+        <v>107727</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>143603</v>
+        <v>146199</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2914543203497695</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2472500669022908</v>
+        <v>0.2515661990937045</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.33534397050196</v>
+        <v>0.3414061775326019</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>163052</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>150162</v>
+        <v>150491</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>175589</v>
+        <v>175478</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7782106221331319</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7166898339613798</v>
+        <v>0.7182566680036253</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8380438591652026</v>
+        <v>0.8375143972441004</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>138</v>
@@ -3901,19 +3901,19 @@
         <v>140365</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>126388</v>
+        <v>125583</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>155788</v>
+        <v>154618</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6418054096452015</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5778996322970049</v>
+        <v>0.5742184898225908</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7123274086379017</v>
+        <v>0.7069757078870624</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>288</v>
@@ -3922,19 +3922,19 @@
         <v>303417</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>284622</v>
+        <v>282026</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>322346</v>
+        <v>320498</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7085456796502305</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.66465602949804</v>
+        <v>0.6585938224673982</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7527499330977093</v>
+        <v>0.7484338009062955</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>78710</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>63645</v>
+        <v>63785</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>95047</v>
+        <v>95783</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2902904903253817</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2347302283891347</v>
+        <v>0.2352454999796598</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3505459122086531</v>
+        <v>0.3532601946972221</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>100</v>
@@ -4047,19 +4047,19 @@
         <v>105416</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>88883</v>
+        <v>88911</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>120965</v>
+        <v>122542</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3814679591230554</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3216401774668426</v>
+        <v>0.3217404660347646</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4377340303230721</v>
+        <v>0.4434411071263918</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>173</v>
@@ -4068,19 +4068,19 @@
         <v>184126</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>158442</v>
+        <v>160150</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>208075</v>
+        <v>205598</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3363124791112155</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2894011152382234</v>
+        <v>0.2925196629797145</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3800570809648475</v>
+        <v>0.3755332067895394</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>192431</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>176094</v>
+        <v>175358</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>207496</v>
+        <v>207356</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7097095096746183</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6494540877913471</v>
+        <v>0.6467398053027779</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7652697716108654</v>
+        <v>0.76475450002034</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>166</v>
@@ -4118,19 +4118,19 @@
         <v>170928</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>155379</v>
+        <v>153802</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>187461</v>
+        <v>187433</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6185320408769446</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5622659696769279</v>
+        <v>0.5565588928736084</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6783598225331575</v>
+        <v>0.6782595339652355</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>351</v>
@@ -4139,19 +4139,19 @@
         <v>363358</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>339409</v>
+        <v>341886</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>389042</v>
+        <v>387334</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6636875208887845</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6199429190351525</v>
+        <v>0.6244667932104605</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7105988847617767</v>
+        <v>0.7074803370202852</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>171502</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>148340</v>
+        <v>149032</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>195684</v>
+        <v>194231</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2640177596400469</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2283612879516698</v>
+        <v>0.2294260898929184</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3012451877459294</v>
+        <v>0.2990076865196949</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>205</v>
@@ -4264,19 +4264,19 @@
         <v>226883</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>203179</v>
+        <v>199283</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>252143</v>
+        <v>249681</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3328326607752356</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2980585459161719</v>
+        <v>0.2923441766457298</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3698882556385519</v>
+        <v>0.3662760267302034</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>365</v>
@@ -4285,19 +4285,19 @@
         <v>398385</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>363956</v>
+        <v>364030</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>434188</v>
+        <v>433641</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2992545746533803</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.273392437029798</v>
+        <v>0.2734479718687158</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3261483260541408</v>
+        <v>0.325737874435445</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>478083</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>453901</v>
+        <v>455354</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>501245</v>
+        <v>500553</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7359822403599531</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6987548122540711</v>
+        <v>0.7009923134803052</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7716387120483305</v>
+        <v>0.7705739101070815</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>420</v>
@@ -4335,19 +4335,19 @@
         <v>454791</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>429531</v>
+        <v>431993</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>478495</v>
+        <v>482391</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6671673392247643</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.630111744361448</v>
+        <v>0.6337239732697967</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7019414540838281</v>
+        <v>0.7076558233542702</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>866</v>
@@ -4356,19 +4356,19 @@
         <v>932874</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>897071</v>
+        <v>897618</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>967303</v>
+        <v>967229</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7007454253466198</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6738516739458591</v>
+        <v>0.6742621255645549</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7266075629702018</v>
+        <v>0.7265520281312842</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>179092</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>155436</v>
+        <v>156172</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>205619</v>
+        <v>205274</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2419663243134935</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2100048736578025</v>
+        <v>0.2109998069779508</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2778051056928144</v>
+        <v>0.2773391838760247</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>198</v>
@@ -4481,19 +4481,19 @@
         <v>218206</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>195137</v>
+        <v>191443</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>243869</v>
+        <v>242863</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2802936719127403</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2506610597604708</v>
+        <v>0.2459149049054669</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3132589955312481</v>
+        <v>0.3119663305284536</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>353</v>
@@ -4502,19 +4502,19 @@
         <v>397298</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>359849</v>
+        <v>361805</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>431285</v>
+        <v>435149</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2616137689222514</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2369540631609003</v>
+        <v>0.2382417918627009</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2839934182436246</v>
+        <v>0.2865375756821929</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>561062</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>534535</v>
+        <v>534880</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>584718</v>
+        <v>583982</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7580336756865065</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7221948943071853</v>
+        <v>0.7226608161239753</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7899951263421974</v>
+        <v>0.789000193022049</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>516</v>
@@ -4552,19 +4552,19 @@
         <v>560285</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>534622</v>
+        <v>535628</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>583354</v>
+        <v>587048</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7197063280872597</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6867410044687517</v>
+        <v>0.6880336694715463</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.749338940239529</v>
+        <v>0.754085095094533</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1043</v>
@@ -4573,19 +4573,19 @@
         <v>1121347</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1087360</v>
+        <v>1083496</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1158796</v>
+        <v>1156840</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7383862310777486</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7160065817563753</v>
+        <v>0.7134624243178072</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7630459368390997</v>
+        <v>0.7617582081372994</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>864034</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>806652</v>
+        <v>813044</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>910997</v>
+        <v>917567</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2596620528507136</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2424174841535716</v>
+        <v>0.2443383346915504</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2737754299141041</v>
+        <v>0.2757498311356996</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1091</v>
@@ -4698,19 +4698,19 @@
         <v>1187387</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1135012</v>
+        <v>1133551</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1244801</v>
+        <v>1242301</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3439594035581164</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3287876526623422</v>
+        <v>0.3283642544564765</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3605908206756354</v>
+        <v>0.3598665922058754</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1880</v>
@@ -4719,19 +4719,19 @@
         <v>2051421</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1975601</v>
+        <v>1978287</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2132526</v>
+        <v>2136070</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3025852398427265</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2914017719481765</v>
+        <v>0.2917978565244086</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3145482193926855</v>
+        <v>0.3150708786514536</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2463500</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2416537</v>
+        <v>2409967</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2520882</v>
+        <v>2514490</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7403379471492864</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7262245700858959</v>
+        <v>0.7242501688643004</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7575825158464283</v>
+        <v>0.7556616653084496</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2107</v>
@@ -4769,19 +4769,19 @@
         <v>2264727</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2207313</v>
+        <v>2209813</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2317102</v>
+        <v>2318563</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6560405964418836</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6394091793243646</v>
+        <v>0.6401334077941245</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6712123473376578</v>
+        <v>0.6716357455435233</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4436</v>
@@ -4790,19 +4790,19 @@
         <v>4728227</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4647122</v>
+        <v>4643578</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4804047</v>
+        <v>4801361</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6974147601572734</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6854517806073144</v>
+        <v>0.6849291213485464</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7085982280518235</v>
+        <v>0.7082021434755917</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>100385</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>84189</v>
+        <v>85106</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>116626</v>
+        <v>117912</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3463988670665863</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2905130674237867</v>
+        <v>0.2936751320298857</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4024417545071229</v>
+        <v>0.4068794772426813</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>121</v>
@@ -5159,19 +5159,19 @@
         <v>127629</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>110040</v>
+        <v>111612</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>146024</v>
+        <v>145460</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4420772411676911</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3811538383363387</v>
+        <v>0.3865969258191763</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5057935926313722</v>
+        <v>0.5038401125140541</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>216</v>
@@ -5180,19 +5180,19 @@
         <v>228014</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>202705</v>
+        <v>203466</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>252530</v>
+        <v>252417</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3941477812956142</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3503988839764231</v>
+        <v>0.3517147731295316</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4365275362513729</v>
+        <v>0.4363310974442169</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>189410</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>173169</v>
+        <v>171883</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>205606</v>
+        <v>204689</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6536011329334137</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5975582454928772</v>
+        <v>0.5931205227573189</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7094869325762135</v>
+        <v>0.7063248679701144</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>156</v>
@@ -5230,19 +5230,19 @@
         <v>161074</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>142679</v>
+        <v>143243</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>178663</v>
+        <v>177091</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5579227588323089</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4942064073686276</v>
+        <v>0.4961598874859459</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6188461616636612</v>
+        <v>0.6134030741808236</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>323</v>
@@ -5251,19 +5251,19 @@
         <v>350484</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>325968</v>
+        <v>326081</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>375793</v>
+        <v>375032</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6058522187043858</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5634724637486271</v>
+        <v>0.5636689025557831</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6496011160235768</v>
+        <v>0.648285226870468</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>140542</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>120229</v>
+        <v>119975</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>162569</v>
+        <v>162155</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.279644317798913</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2392262944491578</v>
+        <v>0.2387205515771429</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3234716406218734</v>
+        <v>0.3226479620242938</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>165</v>
@@ -5376,19 +5376,19 @@
         <v>188452</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>166202</v>
+        <v>166183</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>212582</v>
+        <v>213556</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3631305778806177</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3202568864404909</v>
+        <v>0.3202188406662635</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4096251919872583</v>
+        <v>0.4115032717090108</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>300</v>
@@ -5397,19 +5397,19 @@
         <v>328995</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>297701</v>
+        <v>296350</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>356362</v>
+        <v>360322</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3220572020015787</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2914235287122917</v>
+        <v>0.290101299685865</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3488477441330677</v>
+        <v>0.3527236931904393</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>362033</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>340006</v>
+        <v>340420</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>382346</v>
+        <v>382600</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.720355682201087</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6765283593781266</v>
+        <v>0.6773520379757065</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7607737055508422</v>
+        <v>0.7612794484228573</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>315</v>
@@ -5447,19 +5447,19 @@
         <v>330514</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>306384</v>
+        <v>305410</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>352764</v>
+        <v>352783</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6368694221193822</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5903748080127418</v>
+        <v>0.5884967282909892</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6797431135595091</v>
+        <v>0.6797811593337366</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>655</v>
@@ -5468,19 +5468,19 @@
         <v>692546</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>665179</v>
+        <v>661219</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>723840</v>
+        <v>725191</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6779427979984213</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6511522558669327</v>
+        <v>0.6472763068095607</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.708576471287709</v>
+        <v>0.7098987003141349</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>82628</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>67617</v>
+        <v>66583</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>97618</v>
+        <v>98996</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2650262642344279</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2168803058157572</v>
+        <v>0.2135650971982774</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.313109423705938</v>
+        <v>0.3175269989747048</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>106</v>
@@ -5593,19 +5593,19 @@
         <v>110992</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>94516</v>
+        <v>93905</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>128891</v>
+        <v>129612</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3319990765225033</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2827145280104137</v>
+        <v>0.280888294681358</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3855375544430345</v>
+        <v>0.3876931150591908</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>191</v>
@@ -5614,19 +5614,19 @@
         <v>193619</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>169570</v>
+        <v>171429</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>215734</v>
+        <v>218585</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.299681119480772</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2624576194489571</v>
+        <v>0.2653355477861076</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3339092254085634</v>
+        <v>0.33832186357583</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>229143</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>214153</v>
+        <v>212775</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>244154</v>
+        <v>245188</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7349737357655721</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6868905762940621</v>
+        <v>0.6824730010252952</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.783119694184243</v>
+        <v>0.786434902801722</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>224</v>
@@ -5664,19 +5664,19 @@
         <v>223323</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>205424</v>
+        <v>204703</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>239799</v>
+        <v>240410</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6680009234774967</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6144624455569654</v>
+        <v>0.6123068849408091</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7172854719895863</v>
+        <v>0.7191117053186419</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>466</v>
@@ -5685,19 +5685,19 @@
         <v>452466</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>430351</v>
+        <v>427500</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>476515</v>
+        <v>474656</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.700318880519228</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6660907745914366</v>
+        <v>0.6616781364241701</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7375423805510429</v>
+        <v>0.7346644522138924</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>111792</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>93935</v>
+        <v>95271</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>129654</v>
+        <v>131435</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3045650540717073</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2559154253070821</v>
+        <v>0.2595563852763205</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3532283545569368</v>
+        <v>0.3580805715269649</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>127</v>
@@ -5810,19 +5810,19 @@
         <v>143453</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>125435</v>
+        <v>125759</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>164962</v>
+        <v>163405</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3750923663139478</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3279799957362195</v>
+        <v>0.3288275337765623</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4313340572063264</v>
+        <v>0.427262445680738</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>236</v>
@@ -5831,19 +5831,19 @@
         <v>255245</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>229430</v>
+        <v>227774</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>284194</v>
+        <v>281303</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3405528463025457</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.306109948942909</v>
+        <v>0.3039005233671922</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3791775407107409</v>
+        <v>0.3753200562713878</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>255263</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>237401</v>
+        <v>235620</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>273120</v>
+        <v>271784</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6954349459282928</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6467716454430631</v>
+        <v>0.6419194284730351</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7440845746929179</v>
+        <v>0.7404436147236795</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>227</v>
@@ -5881,19 +5881,19 @@
         <v>238993</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>217484</v>
+        <v>219041</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>257011</v>
+        <v>256687</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6249076336860522</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5686659427936738</v>
+        <v>0.5727375543192618</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6720200042637805</v>
+        <v>0.6711724662234376</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>469</v>
@@ -5902,19 +5902,19 @@
         <v>494256</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>465307</v>
+        <v>468198</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>520071</v>
+        <v>521727</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6594471536974543</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6208224592892591</v>
+        <v>0.6246799437286119</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.693890051057091</v>
+        <v>0.6960994766328077</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>84485</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>70318</v>
+        <v>70614</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>98642</v>
+        <v>98756</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4028661458825332</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.335310277493649</v>
+        <v>0.3367213987483194</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4703757443663302</v>
+        <v>0.4709151596415948</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>113</v>
@@ -6027,19 +6027,19 @@
         <v>110229</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>94502</v>
+        <v>96621</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>124046</v>
+        <v>123805</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5042790238468043</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4323303243011738</v>
+        <v>0.4420244102076624</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5674906294062593</v>
+        <v>0.5663894029932044</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>197</v>
@@ -6048,19 +6048,19 @@
         <v>194714</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>174050</v>
+        <v>176957</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>215002</v>
+        <v>215864</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4546235133197266</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.406377594637946</v>
+        <v>0.4131637130742092</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5019929815138892</v>
+        <v>0.5040055378476408</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>125225</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>111068</v>
+        <v>110954</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>139392</v>
+        <v>139096</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5971338541174669</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5296242556336702</v>
+        <v>0.5290848403584053</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6646897225063515</v>
+        <v>0.6632786012516806</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>110</v>
@@ -6098,19 +6098,19 @@
         <v>108358</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>94541</v>
+        <v>94782</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>124085</v>
+        <v>121966</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4957209761531957</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4325093705937407</v>
+        <v>0.4336105970067956</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5676696756988262</v>
+        <v>0.5579755897923376</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>236</v>
@@ -6119,19 +6119,19 @@
         <v>233583</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>213295</v>
+        <v>212433</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>254247</v>
+        <v>251340</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5453764866802735</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4980070184861108</v>
+        <v>0.4959944621523598</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5936224053620539</v>
+        <v>0.5868362869257908</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>58566</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45362</v>
+        <v>46457</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>72575</v>
+        <v>73039</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2257232893304061</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1748321949136863</v>
+        <v>0.1790530674748743</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2797133123672789</v>
+        <v>0.2815019260572492</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>79</v>
@@ -6244,19 +6244,19 @@
         <v>85279</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>69880</v>
+        <v>70024</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>102180</v>
+        <v>100649</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3157034184029095</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2586979189955962</v>
+        <v>0.2592306194980325</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3782721736647689</v>
+        <v>0.3726033467299945</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>136</v>
@@ -6265,19 +6265,19 @@
         <v>143845</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>122518</v>
+        <v>123462</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>163662</v>
+        <v>165451</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2716190905318311</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2313478798444121</v>
+        <v>0.2331306624715952</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3090395745821158</v>
+        <v>0.3124160180886895</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>200895</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>186886</v>
+        <v>186422</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>214099</v>
+        <v>213004</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7742767106695939</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7202866876327209</v>
+        <v>0.7184980739427509</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8251678050863136</v>
+        <v>0.8209469325251257</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>181</v>
@@ -6315,19 +6315,19 @@
         <v>184844</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>167943</v>
+        <v>169474</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>200243</v>
+        <v>200099</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6842965815970905</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6217278263352314</v>
+        <v>0.6273966532700049</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7413020810044041</v>
+        <v>0.7407693805019668</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>380</v>
@@ -6336,19 +6336,19 @@
         <v>385739</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>365922</v>
+        <v>364133</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>407066</v>
+        <v>406122</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7283809094681689</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.690960425417884</v>
+        <v>0.6875839819113106</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7686521201555876</v>
+        <v>0.7668693375284048</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>194393</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>170711</v>
+        <v>172654</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>220363</v>
+        <v>218981</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3042083794673704</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.26714710978821</v>
+        <v>0.2701887007060766</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3448479928148559</v>
+        <v>0.3426852845636278</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>223</v>
@@ -6461,19 +6461,19 @@
         <v>239047</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>211587</v>
+        <v>213902</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>264037</v>
+        <v>265030</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.353752007934642</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3131150531941174</v>
+        <v>0.3165411199396177</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3907331343916108</v>
+        <v>0.3922031276473504</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>394</v>
@@ -6482,19 +6482,19 @@
         <v>433441</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>398201</v>
+        <v>399878</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>467978</v>
+        <v>469788</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3296723037951613</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3028693266524847</v>
+        <v>0.3041444520551509</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3559411410703566</v>
+        <v>0.3573181940614122</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>444621</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>418651</v>
+        <v>420033</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>468303</v>
+        <v>466360</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6957916205326297</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6551520071851443</v>
+        <v>0.6573147154363723</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.73285289021179</v>
+        <v>0.7298112992939234</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>409</v>
@@ -6532,19 +6532,19 @@
         <v>436701</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>411711</v>
+        <v>410718</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>464161</v>
+        <v>461846</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.646247992065358</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6092668656083893</v>
+        <v>0.60779687235265</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6868849468058826</v>
+        <v>0.6834588800603827</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>803</v>
@@ -6553,19 +6553,19 @@
         <v>881321</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>846784</v>
+        <v>844974</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>916561</v>
+        <v>914884</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6703276962048387</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6440588589296434</v>
+        <v>0.6426818059385878</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6971306733475152</v>
+        <v>0.6958555479448491</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>158665</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>139067</v>
+        <v>136986</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>182872</v>
+        <v>182550</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2087315195111955</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1829496522279245</v>
+        <v>0.1802115591049509</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2405770328963781</v>
+        <v>0.2401532503257383</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>189</v>
@@ -6678,19 +6678,19 @@
         <v>212831</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>186651</v>
+        <v>188033</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>238880</v>
+        <v>240841</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2637104162189557</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2312724674684923</v>
+        <v>0.232984248402584</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2959871788594414</v>
+        <v>0.2984175037224534</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>340</v>
@@ -6699,19 +6699,19 @@
         <v>371496</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>337213</v>
+        <v>338376</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>404803</v>
+        <v>407903</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2370440225751119</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2151690583684313</v>
+        <v>0.2159110924708707</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2582968014654121</v>
+        <v>0.2602744507592618</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>601474</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>577267</v>
+        <v>577589</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>621072</v>
+        <v>623153</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7912684804888045</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7594229671036218</v>
+        <v>0.7598467496742614</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8170503477720753</v>
+        <v>0.8197884408950488</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>549</v>
@@ -6749,19 +6749,19 @@
         <v>594231</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>568182</v>
+        <v>566221</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>620411</v>
+        <v>619029</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7362895837810443</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7040128211405584</v>
+        <v>0.7015824962775463</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7687275325315075</v>
+        <v>0.767015751597416</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1131</v>
@@ -6770,19 +6770,19 @@
         <v>1195706</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1162399</v>
+        <v>1159299</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1229989</v>
+        <v>1228826</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7629559774248881</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7417031985345875</v>
+        <v>0.7397255492407381</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7848309416315686</v>
+        <v>0.7840889075291292</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>931456</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>876226</v>
+        <v>877214</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>985712</v>
+        <v>982629</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2789192279716258</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2623808863196402</v>
+        <v>0.2626765288600764</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2951656380351427</v>
+        <v>0.2942425485724458</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1123</v>
@@ -6895,19 +6895,19 @@
         <v>1217911</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1160815</v>
+        <v>1161170</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1279869</v>
+        <v>1274896</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3483779014645863</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3320458049702809</v>
+        <v>0.3321472413755874</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3661004872815178</v>
+        <v>0.3646780896124355</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2010</v>
@@ -6916,19 +6916,19 @@
         <v>2149368</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2069824</v>
+        <v>2069641</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2229880</v>
+        <v>2220059</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3144433408234503</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3028065002492183</v>
+        <v>0.3027796751298966</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3262220017089578</v>
+        <v>0.3247852064127705</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2408064</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2353808</v>
+        <v>2356891</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2463294</v>
+        <v>2462306</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7210807720283742</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7048343619648573</v>
+        <v>0.7057574514275543</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7376191136803598</v>
+        <v>0.7373234711399236</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2171</v>
@@ -6966,19 +6966,19 @@
         <v>2278038</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2216080</v>
+        <v>2221053</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2335134</v>
+        <v>2334779</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6516220985354136</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6338995127184822</v>
+        <v>0.6353219103875645</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6679541950297192</v>
+        <v>0.6678527586244126</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4463</v>
@@ -6987,19 +6987,19 @@
         <v>4686101</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4605589</v>
+        <v>4615410</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4765645</v>
+        <v>4765828</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6855566591765496</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6737779982910422</v>
+        <v>0.6752147935872298</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6971934997507818</v>
+        <v>0.697220324870104</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>40439</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30321</v>
+        <v>29904</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52685</v>
+        <v>51828</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1268307642523864</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09509587328656637</v>
+        <v>0.09378975754938031</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1652367812936416</v>
+        <v>0.1625490717358939</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -7356,19 +7356,19 @@
         <v>34422</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26897</v>
+        <v>27338</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42497</v>
+        <v>43298</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1089092015003651</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08510066489690626</v>
+        <v>0.08649438031931754</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1344592196583516</v>
+        <v>0.1369928180462446</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>118</v>
@@ -7377,19 +7377,19 @@
         <v>74861</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>62733</v>
+        <v>62635</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>88876</v>
+        <v>89125</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.117909284027069</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09880658757675402</v>
+        <v>0.0986528393506923</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.139983130874302</v>
+        <v>0.1403752656412716</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>278406</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>266160</v>
+        <v>267017</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>288524</v>
+        <v>288941</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8731692357476136</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8347632187063578</v>
+        <v>0.8374509282641059</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9049041267134336</v>
+        <v>0.9062102424506195</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>470</v>
@@ -7427,19 +7427,19 @@
         <v>281639</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>273564</v>
+        <v>272763</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>289164</v>
+        <v>288723</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8910907984996349</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8655407803416483</v>
+        <v>0.8630071819537553</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9148993351030936</v>
+        <v>0.9135056196806824</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>751</v>
@@ -7448,19 +7448,19 @@
         <v>560045</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>546030</v>
+        <v>545781</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>572173</v>
+        <v>572271</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8820907159729311</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8600168691256981</v>
+        <v>0.8596247343587284</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9011934124232462</v>
+        <v>0.9013471606493076</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>209414</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>181068</v>
+        <v>182876</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>236459</v>
+        <v>239095</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3946393462765529</v>
+        <v>0.3946393462765528</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3412204876231623</v>
+        <v>0.3446281789889414</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4456047003928554</v>
+        <v>0.4505717564351575</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>304</v>
@@ -7573,19 +7573,19 @@
         <v>224960</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>204153</v>
+        <v>204211</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>245573</v>
+        <v>246388</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4121859894362103</v>
+        <v>0.4121859894362104</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3740621346955854</v>
+        <v>0.3741682064073334</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4499558655135668</v>
+        <v>0.451448054996308</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>463</v>
@@ -7594,19 +7594,19 @@
         <v>434374</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>402205</v>
+        <v>399415</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>469300</v>
+        <v>469268</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4035359426254905</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.37365082422761</v>
+        <v>0.3710586348118562</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4359826103639002</v>
+        <v>0.4359533220363507</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>321233</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>294188</v>
+        <v>291552</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>349579</v>
+        <v>347771</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6053606537234472</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5543952996071446</v>
+        <v>0.5494282435648423</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6587795123768376</v>
+        <v>0.6553718210110581</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>412</v>
@@ -7644,19 +7644,19 @@
         <v>320812</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>300199</v>
+        <v>299384</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>341619</v>
+        <v>341561</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5878140105637896</v>
+        <v>0.5878140105637898</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5500441344864333</v>
+        <v>0.5485519450036923</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6259378653044146</v>
+        <v>0.6258317935926666</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>635</v>
@@ -7665,19 +7665,19 @@
         <v>642045</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>607119</v>
+        <v>607151</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>674214</v>
+        <v>677004</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5964640573745094</v>
+        <v>0.5964640573745095</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5640173896360998</v>
+        <v>0.5640466779636494</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6263491757723899</v>
+        <v>0.6289413651881435</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>89323</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>75050</v>
+        <v>74643</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>104283</v>
+        <v>105429</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2826752548303764</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2375047331579289</v>
+        <v>0.2362164881261141</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.330016165834894</v>
+        <v>0.3336421788302537</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>179</v>
@@ -7790,19 +7790,19 @@
         <v>104283</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91097</v>
+        <v>92524</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>117185</v>
+        <v>119144</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2929519463091985</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2559101509263456</v>
+        <v>0.2599184994703908</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3291964800047966</v>
+        <v>0.3347010967234674</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>297</v>
@@ -7811,19 +7811,19 @@
         <v>193606</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>172992</v>
+        <v>174889</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>214772</v>
+        <v>214579</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2881193064153198</v>
+        <v>0.2881193064153199</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2574418709506328</v>
+        <v>0.2602651964988516</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3196184092861259</v>
+        <v>0.3193306589820057</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>226670</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>211710</v>
+        <v>210564</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>240943</v>
+        <v>241350</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7173247451696235</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6699838341651061</v>
+        <v>0.6663578211697464</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7624952668420709</v>
+        <v>0.7637835118738859</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>356</v>
@@ -7861,19 +7861,19 @@
         <v>251689</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>238787</v>
+        <v>236828</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>264875</v>
+        <v>263448</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7070480536908015</v>
+        <v>0.7070480536908013</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6708035199952034</v>
+        <v>0.665298903276533</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7440898490736544</v>
+        <v>0.7400815005296092</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>598</v>
@@ -7882,19 +7882,19 @@
         <v>478359</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>457193</v>
+        <v>457386</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>498973</v>
+        <v>497076</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.71188069358468</v>
+        <v>0.7118806935846802</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6803815907138738</v>
+        <v>0.6806693410179944</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7425581290493669</v>
+        <v>0.7397348035011486</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>83005</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66650</v>
+        <v>67595</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106465</v>
+        <v>103376</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2224475378635322</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1786162276766843</v>
+        <v>0.1811493725214346</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2853179342446698</v>
+        <v>0.2770403414068268</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>142</v>
@@ -8007,19 +8007,19 @@
         <v>104001</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88343</v>
+        <v>88811</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>122086</v>
+        <v>121932</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2464718217353113</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2093628819801682</v>
+        <v>0.2104731471240248</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2893297786283835</v>
+        <v>0.2889651981932658</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>222</v>
@@ -8028,19 +8028,19 @@
         <v>187007</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>161197</v>
+        <v>161617</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>213053</v>
+        <v>213492</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2351971744606222</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2027356137246122</v>
+        <v>0.2032641677265455</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2679553562619577</v>
+        <v>0.2685067143299667</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>290140</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>266680</v>
+        <v>269769</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>306495</v>
+        <v>305550</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7775524621364679</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7146820657553301</v>
+        <v>0.7229596585931732</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8213837723233156</v>
+        <v>0.8188506274785653</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>457</v>
@@ -8078,19 +8078,19 @@
         <v>317960</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>299875</v>
+        <v>300029</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>333618</v>
+        <v>333150</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7535281782646887</v>
+        <v>0.7535281782646888</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7106702213716166</v>
+        <v>0.7110348018067342</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7906371180198319</v>
+        <v>0.7895268528759753</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>669</v>
@@ -8099,19 +8099,19 @@
         <v>608100</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>582054</v>
+        <v>581615</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>633910</v>
+        <v>633490</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7648028255393777</v>
+        <v>0.7648028255393776</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7320446437380437</v>
+        <v>0.7314932856700332</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7972643862753886</v>
+        <v>0.7967358322734547</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>60348</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>49764</v>
+        <v>48117</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>72635</v>
+        <v>72103</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2934268709903916</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2419657400469377</v>
+        <v>0.2339569126756015</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3531710185766007</v>
+        <v>0.3505838440572739</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>153</v>
@@ -8224,19 +8224,19 @@
         <v>68234</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>57820</v>
+        <v>58004</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>78804</v>
+        <v>78250</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3019492972789816</v>
+        <v>0.3019492972789817</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2558649150033192</v>
+        <v>0.2566786330915448</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3487254374487993</v>
+        <v>0.346271018164286</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>235</v>
@@ -8245,19 +8245,19 @@
         <v>128581</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>113847</v>
+        <v>113191</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>145618</v>
+        <v>144235</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2978886136349081</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.263753707550085</v>
+        <v>0.2622340774122122</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3373582206124542</v>
+        <v>0.334153324491118</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>145317</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>133030</v>
+        <v>133562</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>155901</v>
+        <v>157548</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7065731290096083</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6468289814233993</v>
+        <v>0.6494161559427259</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7580342599530622</v>
+        <v>0.7660430873243984</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>336</v>
@@ -8295,19 +8295,19 @@
         <v>157744</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>147174</v>
+        <v>147728</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>168158</v>
+        <v>167974</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6980507027210184</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.651274562551201</v>
+        <v>0.653728981835714</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7441350849966808</v>
+        <v>0.7433213669084553</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>533</v>
@@ -8316,19 +8316,19 @@
         <v>303061</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>286024</v>
+        <v>287407</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>317795</v>
+        <v>318451</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7021113863650918</v>
+        <v>0.7021113863650917</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6626417793875459</v>
+        <v>0.665846675508882</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7362462924499152</v>
+        <v>0.7377659225877876</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>79949</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>67795</v>
+        <v>66989</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>92499</v>
+        <v>92571</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2953322891690754</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2504366296343843</v>
+        <v>0.247459239961965</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3416954045886816</v>
+        <v>0.3419607313534574</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>167</v>
@@ -8441,19 +8441,19 @@
         <v>79971</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>69193</v>
+        <v>69604</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>91036</v>
+        <v>92054</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3032088432879531</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2623419815496775</v>
+        <v>0.2639030396171908</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3451609274350419</v>
+        <v>0.3490194062449549</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>310</v>
@@ -8462,19 +8462,19 @@
         <v>159920</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>144164</v>
+        <v>144121</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>176491</v>
+        <v>176660</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2992193042030856</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2697398811871585</v>
+        <v>0.2696579954655594</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3302243852156909</v>
+        <v>0.3305415199745195</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>190758</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>178208</v>
+        <v>178136</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>202912</v>
+        <v>203718</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7046677108309246</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.658304595411318</v>
+        <v>0.6580392686465425</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7495633703656157</v>
+        <v>0.7525407600380348</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>293</v>
@@ -8512,19 +8512,19 @@
         <v>183779</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>172714</v>
+        <v>171696</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>194557</v>
+        <v>194146</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6967911567120471</v>
+        <v>0.6967911567120467</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6548390725649585</v>
+        <v>0.6509805937550454</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7376580184503225</v>
+        <v>0.7360969603828094</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>521</v>
@@ -8533,19 +8533,19 @@
         <v>374537</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>357966</v>
+        <v>357797</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>390293</v>
+        <v>390336</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7007806957969144</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6697756147843091</v>
+        <v>0.669458480025481</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7302601188128413</v>
+        <v>0.7303420045344406</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>174142</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>146222</v>
+        <v>149647</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>198300</v>
+        <v>196836</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2419692915464828</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2031741884935986</v>
+        <v>0.2079339388643493</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2755366547857294</v>
+        <v>0.2735020281642028</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>342</v>
@@ -8658,19 +8658,19 @@
         <v>258758</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>234720</v>
+        <v>234045</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>281646</v>
+        <v>282666</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3355299395480448</v>
+        <v>0.3355299395480449</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3043591029565303</v>
+        <v>0.3034848632451164</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3652078124866127</v>
+        <v>0.366530288591134</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>508</v>
@@ -8679,19 +8679,19 @@
         <v>432900</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>398385</v>
+        <v>395842</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>468848</v>
+        <v>467210</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2903657355059465</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.267214930341725</v>
+        <v>0.2655089777987324</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3144776310628461</v>
+        <v>0.3133789057077431</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>545545</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>521387</v>
+        <v>522851</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>573465</v>
+        <v>570040</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7580307084535172</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7244633452142707</v>
+        <v>0.7264979718357971</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7968258115064014</v>
+        <v>0.7920660611356507</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>617</v>
@@ -8729,19 +8729,19 @@
         <v>512435</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>489547</v>
+        <v>488527</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>536473</v>
+        <v>537148</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.664470060451955</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6347921875133872</v>
+        <v>0.6334697114088661</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6956408970434697</v>
+        <v>0.6965151367548837</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1050</v>
@@ -8750,19 +8750,19 @@
         <v>1057980</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1022032</v>
+        <v>1023670</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1092495</v>
+        <v>1095038</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7096342644940534</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6855223689371539</v>
+        <v>0.6866210942922572</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7327850696582747</v>
+        <v>0.7344910222012675</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>477950</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>448813</v>
+        <v>446955</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>509275</v>
+        <v>508225</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5988806208081717</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5623710115611055</v>
+        <v>0.5600435469051156</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6381310717548025</v>
+        <v>0.6368164330609493</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>719</v>
@@ -8875,19 +8875,19 @@
         <v>538482</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>513048</v>
+        <v>511342</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>564053</v>
+        <v>562528</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.6487761316767979</v>
+        <v>0.648776131676798</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6181329386835264</v>
+        <v>0.61607726699209</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6795851756655938</v>
+        <v>0.6777476721646034</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1207</v>
@@ -8896,19 +8896,19 @@
         <v>1016431</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>976051</v>
+        <v>970959</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1056193</v>
+        <v>1050798</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6243175699014495</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5995146450445628</v>
+        <v>0.5963873771216879</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6487403155029504</v>
+        <v>0.6454264790161978</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>320122</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>288797</v>
+        <v>289847</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>349259</v>
+        <v>351117</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4011193791918282</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3618689282451973</v>
+        <v>0.3631835669390511</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4376289884388945</v>
+        <v>0.4399564530948845</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>341</v>
@@ -8946,19 +8946,19 @@
         <v>291514</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>265943</v>
+        <v>267468</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>316948</v>
+        <v>318654</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3512238683232019</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.320414824334406</v>
+        <v>0.3222523278353966</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3818670613164733</v>
+        <v>0.38392273300791</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>615</v>
@@ -8967,19 +8967,19 @@
         <v>611637</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>571875</v>
+        <v>577270</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>652017</v>
+        <v>657109</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3756824300985505</v>
+        <v>0.3756824300985506</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3512596844970491</v>
+        <v>0.3545735209838022</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4004853549554372</v>
+        <v>0.4036126228783122</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>1214570</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1153896</v>
+        <v>1151187</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1274297</v>
+        <v>1277759</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3438019468890993</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3266271626839257</v>
+        <v>0.3258603084516956</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3607083302128785</v>
+        <v>0.361688283628055</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2074</v>
@@ -9092,19 +9092,19 @@
         <v>1413111</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1358877</v>
+        <v>1361870</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1470371</v>
+        <v>1466189</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3787807638468187</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3642433778577643</v>
+        <v>0.3650458338340339</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3941292851989503</v>
+        <v>0.3930080680151773</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3360</v>
@@ -9113,19 +9113,19 @@
         <v>2627681</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2550499</v>
+        <v>2549595</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2706868</v>
+        <v>2705555</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.3617679223619268</v>
+        <v>0.3617679223619267</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3511417138325709</v>
+        <v>0.3510172983043317</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.372670042852864</v>
+        <v>0.372489191071504</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2318192</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2258465</v>
+        <v>2255003</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2378866</v>
+        <v>2381575</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.6561980531109008</v>
+        <v>0.6561980531109007</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6392916697871216</v>
+        <v>0.6383117163719453</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6733728373160744</v>
+        <v>0.6741396915483043</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3282</v>
@@ -9163,19 +9163,19 @@
         <v>2317572</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2260312</v>
+        <v>2264494</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2371806</v>
+        <v>2368813</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.6212192361531814</v>
+        <v>0.6212192361531813</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6058707148010496</v>
+        <v>0.6069919319848226</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6357566221422354</v>
+        <v>0.6349541661659661</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5372</v>
@@ -9184,19 +9184,19 @@
         <v>4635764</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4556577</v>
+        <v>4557890</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4712946</v>
+        <v>4713850</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.6382320776380734</v>
+        <v>0.6382320776380732</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6273299571471361</v>
+        <v>0.6275108089284961</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6488582861674296</v>
+        <v>0.6489827016956685</v>
       </c>
     </row>
     <row r="30">
